--- a/docss/trend/spain/E_skin.xlsx
+++ b/docss/trend/spain/E_skin.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cap8_Piel_Comarcas" sheetId="2" r:id="rId1"/>
     <sheet name="Tasa_anual_cap8_Piel" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12809,7 +12809,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12836,13 +12836,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>0.22962349932640791</v>
+        <v>0.23</v>
       </c>
       <c r="C2">
-        <v>0.25685069803148508</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="D2">
-        <v>0.21098638977855444</v>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12850,13 +12850,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>0.26264729304239154</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="C3">
-        <v>0.2355349212884903</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="D3">
-        <v>0.27891705464571714</v>
+        <v>0.27900000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12864,13 +12864,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>0.30712276790291071</v>
+        <v>0.307</v>
       </c>
       <c r="C4">
-        <v>0.35758522246032953</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D4">
-        <v>0.26338837249204516</v>
+        <v>0.26300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12878,13 +12878,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>0.27142575569450855</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="C5">
-        <v>0.24338724813424051</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D5">
-        <v>0.29296542471274734</v>
+        <v>0.29299999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12892,13 +12892,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>0.25998465495649725</v>
+        <v>0.26</v>
       </c>
       <c r="C6">
-        <v>0.27709256485104561</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D6">
-        <v>0.23958165943622589</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12906,13 +12906,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>0.20232585957273841</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="C7">
-        <v>0.21048087254166603</v>
+        <v>0.21</v>
       </c>
       <c r="D7">
-        <v>0.1972639188170433</v>
+        <v>0.19700000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12920,13 +12920,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>0.23521083255764097</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="C8">
-        <v>0.22909532976336777</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="D8">
-        <v>0.23851850349456072</v>
+        <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12934,13 +12934,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>0.24460285622626543</v>
+        <v>0.245</v>
       </c>
       <c r="C9">
-        <v>0.22788343671709299</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="D9">
-        <v>0.26381215336732566</v>
+        <v>0.26400000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12948,13 +12948,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>0.25470891129225492</v>
+        <v>0.255</v>
       </c>
       <c r="C10">
-        <v>0.25508713419549167</v>
+        <v>0.255</v>
       </c>
       <c r="D10">
-        <v>0.25121485581621528</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12962,13 +12962,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>0.18318710871972144</v>
+        <v>0.183</v>
       </c>
       <c r="C11">
-        <v>0.18800866999663413</v>
+        <v>0.188</v>
       </c>
       <c r="D11">
-        <v>0.1846200015861541</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12976,13 +12976,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0.23976513149682432</v>
+        <v>0.24</v>
       </c>
       <c r="C12">
-        <v>0.24841104028746486</v>
+        <v>0.248</v>
       </c>
       <c r="D12">
-        <v>0.2321818417403847</v>
+        <v>0.23200000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12990,13 +12990,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>0.2582148548681289</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="C13">
-        <v>0.22194885951466858</v>
+        <v>0.222</v>
       </c>
       <c r="D13">
-        <v>0.29185085371136665</v>
+        <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13004,13 +13004,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>0.2553431405685842</v>
+        <v>0.255</v>
       </c>
       <c r="C14">
-        <v>0.22935193311423063</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="D14">
-        <v>0.27836216567084193</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13018,13 +13018,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>0.19899914914276451</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="C15">
-        <v>0.19218913814984262</v>
+        <v>0.192</v>
       </c>
       <c r="D15">
-        <v>0.20044234837405384</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13032,13 +13032,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>0.16810814989730716</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="C16">
-        <v>0.17042718175798655</v>
+        <v>0.17</v>
       </c>
       <c r="D16">
-        <v>0.16066338866949081</v>
+        <v>0.161</v>
       </c>
     </row>
   </sheetData>
